--- a/backend/pdf_processing/extracted/tables/fileoutpart2.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart2.xlsx
@@ -14,126 +14,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
-  <si>
-    <t>LFMT _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+  <si>
+    <t>LFEH _x000D_</t>
   </si>
   <si>
     <t>-_x000D_</t>
   </si>
   <si>
+    <t>600 _x000D_</t>
+  </si>
+  <si>
+    <t>-6 _x000D_</t>
+  </si>
+  <si>
+    <t>--_x000D_</t>
+  </si>
+  <si>
+    <t>- 84 _x000D_</t>
+  </si>
+  <si>
+    <t>- 21.9 _x000D_</t>
+  </si>
+  <si>
+    <t>- 0:44 -_x000D_</t>
+  </si>
+  <si>
+    <t>-TOC-_x000D_</t>
+  </si>
+  <si>
+    <t>DCT _x000D_</t>
+  </si>
+  <si>
+    <t>320 _x000D_</t>
+  </si>
+  <si>
+    <t>325 _x000D_</t>
+  </si>
+  <si>
+    <t>1600 _x000D_</t>
+  </si>
+  <si>
+    <t>T4 _x000D_</t>
+  </si>
+  <si>
+    <t>207/008 _x000D_</t>
+  </si>
+  <si>
+    <t>80 84 _x000D_</t>
+  </si>
+  <si>
+    <t>2 82 _x000D_</t>
+  </si>
+  <si>
+    <t>0.5 21.5 _x000D_</t>
+  </si>
+  <si>
+    <t>0:02 0:42 0:02 _x000D_</t>
+  </si>
+  <si>
+    <t>OSE OSE _x000D_</t>
+  </si>
+  <si>
+    <t>321 _x000D_</t>
+  </si>
+  <si>
+    <t>209/009 _x000D_</t>
+  </si>
+  <si>
+    <t>110 114 _x000D_</t>
+  </si>
+  <si>
+    <t>24 58 _x000D_</t>
+  </si>
+  <si>
+    <t>2.5 19.3 _x000D_</t>
+  </si>
+  <si>
+    <t>0:13 0:29 0:15 _x000D_</t>
+  </si>
+  <si>
+    <t>OE OE _x000D_</t>
+  </si>
+  <si>
+    <t>001 _x000D_</t>
+  </si>
+  <si>
+    <t>002 _x000D_</t>
+  </si>
+  <si>
+    <t>T9 _x000D_</t>
+  </si>
+  <si>
+    <t>198/009 _x000D_</t>
+  </si>
+  <si>
+    <t>110 120 _x000D_</t>
+  </si>
+  <si>
+    <t>14 44 _x000D_</t>
+  </si>
+  <si>
+    <t>3.7 18.2 _x000D_</t>
+  </si>
+  <si>
+    <t>0:07 0:22 0:22 _x000D_</t>
+  </si>
+  <si>
+    <t>ONE ONE _x000D_</t>
+  </si>
+  <si>
+    <t>T7 _x000D_</t>
+  </si>
+  <si>
+    <t>193/010 _x000D_</t>
+  </si>
+  <si>
+    <t>110 117 _x000D_</t>
+  </si>
+  <si>
+    <t>8 36 _x000D_</t>
+  </si>
+  <si>
+    <t>4.5 17.5 _x000D_</t>
+  </si>
+  <si>
+    <t>0:04 0:18 0:26 _x000D_</t>
+  </si>
+  <si>
+    <t>4834N00159E _x000D_</t>
+  </si>
+  <si>
+    <t>2000 _x000D_</t>
+  </si>
+  <si>
+    <t>T10 _x000D_</t>
+  </si>
+  <si>
+    <t>196/010 _x000D_</t>
+  </si>
+  <si>
+    <t>109 _x000D_</t>
+  </si>
+  <si>
+    <t>119 _x000D_</t>
+  </si>
+  <si>
+    <t>23 13 _x000D_</t>
+  </si>
+  <si>
+    <t>6.3 15.5 _x000D_</t>
+  </si>
+  <si>
+    <t>0:11 0:07 0:37 _x000D_</t>
+  </si>
+  <si>
+    <t>RBT RAMBOUILLET 114.7 _x000D_</t>
+  </si>
+  <si>
+    <t>003 _x000D_</t>
+  </si>
+  <si>
+    <t>1500 _x000D_</t>
+  </si>
+  <si>
+    <t>-5 _x000D_</t>
+  </si>
+  <si>
+    <t>103 _x000D_</t>
+  </si>
+  <si>
+    <t>113 _x000D_</t>
+  </si>
+  <si>
+    <t>5 8 _x000D_</t>
+  </si>
+  <si>
+    <t>6.8 15.1 _x000D_</t>
+  </si>
+  <si>
+    <t>0:03 0:04 0:40 _x000D_</t>
+  </si>
+  <si>
+    <t>S PNS _x000D_</t>
+  </si>
+  <si>
+    <t>055 _x000D_</t>
+  </si>
+  <si>
+    <t>052 _x000D_</t>
+  </si>
+  <si>
+    <t>1300 _x000D_</t>
+  </si>
+  <si>
+    <t>190/009 _x000D_</t>
+  </si>
+  <si>
+    <t>108 _x000D_</t>
+  </si>
+  <si>
+    <t>115 _x000D_</t>
+  </si>
+  <si>
+    <t>6 _x000D_</t>
+  </si>
+  <si>
+    <t>2 _x000D_</t>
+  </si>
+  <si>
+    <t>7.3 14.6 _x000D_</t>
+  </si>
+  <si>
+    <t>0:03 0:01 0:43 _x000D_</t>
+  </si>
+  <si>
+    <t>-TOD-_x000D_</t>
+  </si>
+  <si>
+    <t>358 _x000D_</t>
+  </si>
+  <si>
+    <t>192/010 _x000D_</t>
+  </si>
+  <si>
     <t>0 _x000D_</t>
   </si>
   <si>
-    <t>-7 _x000D_</t>
-  </si>
-  <si>
-    <t>19 _x000D_</t>
-  </si>
-  <si>
-    <t>15.7 _x000D_</t>
-  </si>
-  <si>
-    <t>0:12 _x000D_</t>
-  </si>
-  <si>
-    <t>-TOC-_x000D_</t>
-  </si>
-  <si>
-    <t>DCT _x000D_</t>
-  </si>
-  <si>
-    <t>144 _x000D_</t>
-  </si>
-  <si>
-    <t>2000 _x000D_</t>
-  </si>
-  <si>
-    <t>T4 _x000D_</t>
-  </si>
-  <si>
-    <t>324/004 _x000D_</t>
-  </si>
-  <si>
-    <t>80 _x000D_</t>
-  </si>
-  <si>
-    <t>84 _x000D_</t>
-  </si>
-  <si>
-    <t>4 15 _x000D_</t>
-  </si>
-  <si>
-    <t>1.0 _x000D_</t>
-  </si>
-  <si>
-    <t>14.6 _x000D_</t>
-  </si>
-  <si>
-    <t>0:03 _x000D_</t>
-  </si>
-  <si>
-    <t>0:09 _x000D_</t>
-  </si>
-  <si>
-    <t>APPCH _x000D_</t>
-  </si>
-  <si>
-    <t>T5 _x000D_</t>
-  </si>
-  <si>
-    <t>324/005 _x000D_</t>
-  </si>
-  <si>
-    <t>-6 _x000D_</t>
-  </si>
-  <si>
-    <t>110 _x000D_</t>
-  </si>
-  <si>
-    <t>115 _x000D_</t>
-  </si>
-  <si>
-    <t>5 10 _x000D_</t>
-  </si>
-  <si>
-    <t>1.7 _x000D_</t>
-  </si>
-  <si>
-    <t>14.1 _x000D_</t>
-  </si>
-  <si>
-    <t>0:06 _x000D_</t>
-  </si>
-  <si>
-    <t>-TOD-_x000D_</t>
-  </si>
-  <si>
-    <t>353 _x000D_</t>
-  </si>
-  <si>
-    <t>354 _x000D_</t>
-  </si>
-  <si>
-    <t>H4 _x000D_</t>
-  </si>
-  <si>
-    <t>325/005 _x000D_</t>
-  </si>
-  <si>
-    <t>106 _x000D_</t>
-  </si>
-  <si>
-    <t>4 _x000D_</t>
-  </si>
-  <si>
-    <t>6 _x000D_</t>
-  </si>
-  <si>
-    <t>2.0 _x000D_</t>
-  </si>
-  <si>
-    <t>13.7 _x000D_</t>
+    <t>0:00 0:01 0:43 _x000D_</t>
+  </si>
+  <si>
+    <t>LFPN _x000D_</t>
+  </si>
+  <si>
+    <t>359 _x000D_</t>
+  </si>
+  <si>
+    <t>538 _x000D_</t>
+  </si>
+  <si>
+    <t>90 _x000D_</t>
+  </si>
+  <si>
+    <t>99 _x000D_</t>
+  </si>
+  <si>
+    <t>7.5 14.3 _x000D_</t>
+  </si>
+  <si>
+    <t>0:01 - 0:44 _x000D_</t>
   </si>
 </sst>
 </file>
@@ -186,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -196,6 +325,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,249 +626,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="20" customHeight="1">
+    <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="32" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:16" ht="32" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="32" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="32" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="32" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="22" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
